--- a/terms/oba_toDO.xlsx
+++ b/terms/oba_toDO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C71E90-6C16-0144-A309-6F2A47CB0600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231137CA-4F23-B949-8CF5-85506682F3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15640" xr2:uid="{28C3DE2E-F2D6-784F-BFCF-470921B0D866}"/>
+    <workbookView xWindow="7880" yWindow="3920" windowWidth="27240" windowHeight="15640" xr2:uid="{28C3DE2E-F2D6-784F-BFCF-470921B0D866}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>add "forearm length" as synonym for "ulna length"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>improve equivalency for</t>
+  </si>
+  <si>
+    <t>tibia</t>
+  </si>
+  <si>
+    <t>pes</t>
+  </si>
+  <si>
+    <t>add "forelimb length" as a broad synonym for "ulna length"</t>
+  </si>
+  <si>
+    <t>femur</t>
+  </si>
+  <si>
+    <t>humerus</t>
   </si>
 </sst>
 </file>
@@ -379,17 +394,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2E0B7-6799-F140-BF4C-F6E5AB62C570}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/terms/oba_toDO.xlsx
+++ b/terms/oba_toDO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231137CA-4F23-B949-8CF5-85506682F3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46513094-CE19-4646-8B25-98DC4DA09F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="3920" windowWidth="27240" windowHeight="15640" xr2:uid="{28C3DE2E-F2D6-784F-BFCF-470921B0D866}"/>
+    <workbookView xWindow="1560" yWindow="1500" windowWidth="27240" windowHeight="15640" xr2:uid="{28C3DE2E-F2D6-784F-BFCF-470921B0D866}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>improve equivalency for</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>humerus</t>
+  </si>
+  <si>
+    <t>ulna</t>
+  </si>
+  <si>
+    <t>radius</t>
   </si>
 </sst>
 </file>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2E0B7-6799-F140-BF4C-F6E5AB62C570}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,6 +436,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/terms/oba_toDO.xlsx
+++ b/terms/oba_toDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46513094-CE19-4646-8B25-98DC4DA09F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D24987-8B93-EA43-92D1-2D68348F397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1500" windowWidth="27240" windowHeight="15640" xr2:uid="{28C3DE2E-F2D6-784F-BFCF-470921B0D866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>improve equivalency for</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>radius</t>
+  </si>
+  <si>
+    <t>add plantigrade, digitigrade, and unguligrade locomotion</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2E0B7-6799-F140-BF4C-F6E5AB62C570}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,6 +449,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/terms/oba_toDO.xlsx
+++ b/terms/oba_toDO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D24987-8B93-EA43-92D1-2D68348F397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DA9434-8C9B-9848-8CE7-2BCB35B7828A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1500" windowWidth="27240" windowHeight="15640" xr2:uid="{28C3DE2E-F2D6-784F-BFCF-470921B0D866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>improve equivalency for</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>add plantigrade, digitigrade, and unguligrade locomotion</t>
+  </si>
+  <si>
+    <t>expand def for</t>
+  </si>
+  <si>
+    <t>fibula length</t>
+  </si>
+  <si>
+    <t>scapula length</t>
+  </si>
+  <si>
+    <t>for all "lengths" add definition source and improve definition (e.g., axis)</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2E0B7-6799-F140-BF4C-F6E5AB62C570}">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,7 +463,25 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/terms/oba_toDO.xlsx
+++ b/terms/oba_toDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DA9434-8C9B-9848-8CE7-2BCB35B7828A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3544B-E807-EA44-B3CC-39FF95E008FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1500" windowWidth="27240" windowHeight="15640" xr2:uid="{28C3DE2E-F2D6-784F-BFCF-470921B0D866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>improve equivalency for</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>for all "lengths" add definition source and improve definition (e.g., axis)</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>made issue</t>
+  </si>
+  <si>
+    <t>girth as synonym to chest circumference</t>
+  </si>
+  <si>
+    <t>new axiomization for skin mass to include mass and skin of body</t>
   </si>
 </sst>
 </file>
@@ -415,73 +427,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2E0B7-6799-F140-BF4C-F6E5AB62C570}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/terms/oba_toDO.xlsx
+++ b/terms/oba_toDO.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3544B-E807-EA44-B3CC-39FF95E008FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24C4B40-82C2-BB45-AF7D-8F05BA6868F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1500" windowWidth="27240" windowHeight="15640" xr2:uid="{28C3DE2E-F2D6-784F-BFCF-470921B0D866}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -430,7 +437,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
